--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_707.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_707.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32513-d12214492-Reviews-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-SpringHill-Suites-By-Marriott-Huntington-Beach-Orange-County.h17180288.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_707.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_707.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,569 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r591198514-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32513</t>
+  </si>
+  <si>
+    <t>12214492</t>
+  </si>
+  <si>
+    <t>591198514</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Seriously Lacking Amenities</t>
+  </si>
+  <si>
+    <t>The rooms are nice and new and beds are comfortable. With that said, there is no pool, the gym is tiny and no hair dryers in the rooms. house keeping didn't show up until after 4 PM to clean the room. We had to leave our room after a long day of class, just so house keeping could clean. There is a very nice rooftop deck on the 2nd floor with lawn games, heaters and lounge chairs. The front desk staff closed the deck at 10 every night but there is no sign with any sort of hours on it for the deck area so we got kicked out as soon as we got settled in. There is nothing else to do so it doesn't make much sense to close the deck.If you have no kids and are staying one night to sleep or if you don't want to do anything but stay in your room while you are at this hotel, it would be fine. If you are looking for any kind of activity at the hotel, find another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The rooms are nice and new and beds are comfortable. With that said, there is no pool, the gym is tiny and no hair dryers in the rooms. house keeping didn't show up until after 4 PM to clean the room. We had to leave our room after a long day of class, just so house keeping could clean. There is a very nice rooftop deck on the 2nd floor with lawn games, heaters and lounge chairs. The front desk staff closed the deck at 10 every night but there is no sign with any sort of hours on it for the deck area so we got kicked out as soon as we got settled in. There is nothing else to do so it doesn't make much sense to close the deck.If you have no kids and are staying one night to sleep or if you don't want to do anything but stay in your room while you are at this hotel, it would be fine. If you are looking for any kind of activity at the hotel, find another place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r589854266-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>589854266</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>This hotel was great!! I hosted my Wedding guests at this hotel and everyone was pleased. The rooms were clean, spacious, and modern. I the only thing was I wish they had a pool other than that I would definitely stay here again. The staff were friendly and the breakfast bar area wasn't half bad either.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r586853169-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>586853169</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>We arrived around 11am and the room was not ready so we continued our agenda to Disneyland and returned 11pm.When we were back, to our surprise, the room type (2 x Queen) we reserved earlier was not arranged and since the whole property was sold out, we were left with no choice but to put up in a room far away from lift and facing the highway. The night was not really pleasant  due to unceasing road noise and some drunk pple yelling in the car park post wedding event.The next morning, we went to David and he was able to arrange the desired room for us and the whole experience took a turn and ended quite well.The breakfast was not bad with good variety to choose from. If there is anything to pick on, it would be the $10 parking charge. It seems that charging parking is a norm in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We arrived around 11am and the room was not ready so we continued our agenda to Disneyland and returned 11pm.When we were back, to our surprise, the room type (2 x Queen) we reserved earlier was not arranged and since the whole property was sold out, we were left with no choice but to put up in a room far away from lift and facing the highway. The night was not really pleasant  due to unceasing road noise and some drunk pple yelling in the car park post wedding event.The next morning, we went to David and he was able to arrange the desired room for us and the whole experience took a turn and ended quite well.The breakfast was not bad with good variety to choose from. If there is anything to pick on, it would be the $10 parking charge. It seems that charging parking is a norm in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r574087285-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>574087285</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Kevin U.K.</t>
+  </si>
+  <si>
+    <t>Great choice for a stay in HB.close to good amenities like restaurants,shops,cinema etc.that you can walk too.The rooms are new,well laid out and a good size with comfortable beds,might be wise to ask for a room at the back as there could be noise from the highway at the front.The staff are friendly,professional and give the place a welcoming feel. David on reception was great,very helpful and a real ambassador for the hotel.Well equipped gym,laundry facilities and the free continental breakfast was good.It is a 30 minute drive to the beach,we found the location be be a very good base for the area and would have no hesitation in recommending this good value,comfortable and friendly hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Great choice for a stay in HB.close to good amenities like restaurants,shops,cinema etc.that you can walk too.The rooms are new,well laid out and a good size with comfortable beds,might be wise to ask for a room at the back as there could be noise from the highway at the front.The staff are friendly,professional and give the place a welcoming feel. David on reception was great,very helpful and a real ambassador for the hotel.Well equipped gym,laundry facilities and the free continental breakfast was good.It is a 30 minute drive to the beach,we found the location be be a very good base for the area and would have no hesitation in recommending this good value,comfortable and friendly hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r573302398-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>573302398</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>New! New furnishings, fixtures, carpets. The place was immaculate and everything was new. The rooms as greater and accommodated our entire family of six. The breakfast was terrific and included everything you could want. Great stay. Perfect for families.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r572775905-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>572775905</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This is a great location for visiting the Huntington Beach area and even Disneyland. It is brand new and the staff was very professional and helpful. Breakfast was the usual fare, but was well stocked throughout the morning. It's also right off the 405 freeway and easy access. It has Marriott quality without having to drive to Costa Mesa.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r566583085-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>566583085</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Close to most everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location. Close enough to Disney. Very close to Huntington Beach. Lots of places to eat around here. Rooms were nice and big. Breakfast was good.  great base for a family on vacation. Workout room was nice. Check in staff was great. The only thing I didn’t like was the parking fee. They waived it when I said that was not explained to me. However that was minor. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r564031158-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>564031158</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Nice modern hotel, large suite style rooms</t>
+  </si>
+  <si>
+    <t>This is a relatively new property, large spacious rooms with modern contemporary amenities. Excellent staff, check in was quick. Good location next to highways. I did not use the pool or gym.  The only issue is that the actual address is a challenge for GPS programs or Google Maps, I used Uber twice during my stay and both times the drivers were at an adjacent property on the back road. Keep this in mind if you want to avoid this hassle.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r563391022-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>563391022</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Stay at a simple yet Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>My good experience with this hotel started before I even arrived. I got notification at least a few hours before I was suppose to check in that, that my room was ready. I enjoyed my stay here. It is a beautiful modern hotel in a good location. Everything is still new and fresh. The price was very reasonable. Parking is only $10. The rooms and bathroom were a good size. The bed was very comfortable. There are a microwave and mini fridge in the room. The tv was equipped with internet TV. It made it super easy to sign in to your netflix, hulu, youtube, etc. There were plenty of outlet to charge devices, even if you only had the USB. There is this nice terrace on the second floor, where you can relax and enjoy the view or play some life-size games (connect 4, Jenga, foosball). Wi-fi is free. There is a complimentary breakfast. The breakfast (scrambled eggs, potatoes, mini waffles, pastries, etc) was just ok. The hotel is within walking distance to Bella Terra, where there are lots of great shops (Kohls, Costco, Burlington factory, etc), an awesome movie theatre, and lots of eating places. The staff was super awesome and friendly. I have a few minor complaints (almost not worth mentioning). The room was almost spotless except for one little popcorn behind the ice bucket. The chair at the desk in the work area was heavy and...My good experience with this hotel started before I even arrived. I got notification at least a few hours before I was suppose to check in that, that my room was ready. I enjoyed my stay here. It is a beautiful modern hotel in a good location. Everything is still new and fresh. The price was very reasonable. Parking is only $10. The rooms and bathroom were a good size. The bed was very comfortable. There are a microwave and mini fridge in the room. The tv was equipped with internet TV. It made it super easy to sign in to your netflix, hulu, youtube, etc. There were plenty of outlet to charge devices, even if you only had the USB. There is this nice terrace on the second floor, where you can relax and enjoy the view or play some life-size games (connect 4, Jenga, foosball). Wi-fi is free. There is a complimentary breakfast. The breakfast (scrambled eggs, potatoes, mini waffles, pastries, etc) was just ok. The hotel is within walking distance to Bella Terra, where there are lots of great shops (Kohls, Costco, Burlington factory, etc), an awesome movie theatre, and lots of eating places. The staff was super awesome and friendly. I have a few minor complaints (almost not worth mentioning). The room was almost spotless except for one little popcorn behind the ice bucket. The chair at the desk in the work area was heavy and hard to move. The glass in the little work area/desk sometimes shook and made noise when you walked by it. The Tv was position a little akwardly to be able to view from the living room area and bedroom area. Overall, my stay was great. If I was in the area, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My good experience with this hotel started before I even arrived. I got notification at least a few hours before I was suppose to check in that, that my room was ready. I enjoyed my stay here. It is a beautiful modern hotel in a good location. Everything is still new and fresh. The price was very reasonable. Parking is only $10. The rooms and bathroom were a good size. The bed was very comfortable. There are a microwave and mini fridge in the room. The tv was equipped with internet TV. It made it super easy to sign in to your netflix, hulu, youtube, etc. There were plenty of outlet to charge devices, even if you only had the USB. There is this nice terrace on the second floor, where you can relax and enjoy the view or play some life-size games (connect 4, Jenga, foosball). Wi-fi is free. There is a complimentary breakfast. The breakfast (scrambled eggs, potatoes, mini waffles, pastries, etc) was just ok. The hotel is within walking distance to Bella Terra, where there are lots of great shops (Kohls, Costco, Burlington factory, etc), an awesome movie theatre, and lots of eating places. The staff was super awesome and friendly. I have a few minor complaints (almost not worth mentioning). The room was almost spotless except for one little popcorn behind the ice bucket. The chair at the desk in the work area was heavy and...My good experience with this hotel started before I even arrived. I got notification at least a few hours before I was suppose to check in that, that my room was ready. I enjoyed my stay here. It is a beautiful modern hotel in a good location. Everything is still new and fresh. The price was very reasonable. Parking is only $10. The rooms and bathroom were a good size. The bed was very comfortable. There are a microwave and mini fridge in the room. The tv was equipped with internet TV. It made it super easy to sign in to your netflix, hulu, youtube, etc. There were plenty of outlet to charge devices, even if you only had the USB. There is this nice terrace on the second floor, where you can relax and enjoy the view or play some life-size games (connect 4, Jenga, foosball). Wi-fi is free. There is a complimentary breakfast. The breakfast (scrambled eggs, potatoes, mini waffles, pastries, etc) was just ok. The hotel is within walking distance to Bella Terra, where there are lots of great shops (Kohls, Costco, Burlington factory, etc), an awesome movie theatre, and lots of eating places. The staff was super awesome and friendly. I have a few minor complaints (almost not worth mentioning). The room was almost spotless except for one little popcorn behind the ice bucket. The chair at the desk in the work area was heavy and hard to move. The glass in the little work area/desk sometimes shook and made noise when you walked by it. The Tv was position a little akwardly to be able to view from the living room area and bedroom area. Overall, my stay was great. If I was in the area, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r558877417-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>558877417</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Another Win!</t>
+  </si>
+  <si>
+    <t>Love the remodeled modern look of the Springhill Suites. This is the second one we’ve stayed in this year and it didn’t disappoint. Bed is comfy. Large TV. Oversized couch. Free breakfast. Parking is $10/day. Convenient location across the street from Shopping, Whole Foods, Costco, restaurants. If you in town for a short stay it would be better to Uber around. Car rental rates are pricey with all the extra CA fees and taxes. Located only 10 minutes from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Love the remodeled modern look of the Springhill Suites. This is the second one we’ve stayed in this year and it didn’t disappoint. Bed is comfy. Large TV. Oversized couch. Free breakfast. Parking is $10/day. Convenient location across the street from Shopping, Whole Foods, Costco, restaurants. If you in town for a short stay it would be better to Uber around. Car rental rates are pricey with all the extra CA fees and taxes. Located only 10 minutes from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r558339952-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>558339952</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel...Great Location</t>
+  </si>
+  <si>
+    <t>I was in town for a softball tournament so I chose this hotel for its proximity to the softball fields at the Huntington Beach Complex.  I was pleasantly surprised to arrive and find shopping and restaurants across the street including a Whole Foods Market. 
+Room:
+I had requested a double room, but we were checking in early and there were no rooms available so I opted for a King. The room was separated into a living/sleeping area by a desk. There was a very large oversized couch. There was a refrigerator and microwave. The TV was huge and offered Netflix so you could log onto account and access movies. The room was very comfortable. 
+Hotel Grounds: 
+The hotel serves a complimentary breakfast every morning. Breakfast is served in a tight space and can imagine on busy mornings how it might be challenging.  There are many places in the lobby to sit and eat breakfast or enjoy your coffee.  The lobby is aesthetically pleasing and there is a bar, but unfortunately it was closed both days of our stay. 
+The workout room is small, but it has 2 treadmills, elliptical, and I believe stair master. There is an area for stretching and mat work. Free weights and a bench and a universal machine. 
+On the 2nd floor, there is a large patio/lawn area with a variety of seating options.  There is a foosball table and huge connect four.  It's a great...I was in town for a softball tournament so I chose this hotel for its proximity to the softball fields at the Huntington Beach Complex.  I was pleasantly surprised to arrive and find shopping and restaurants across the street including a Whole Foods Market. Room:I had requested a double room, but we were checking in early and there were no rooms available so I opted for a King. The room was separated into a living/sleeping area by a desk. There was a very large oversized couch. There was a refrigerator and microwave. The TV was huge and offered Netflix so you could log onto account and access movies. The room was very comfortable. Hotel Grounds: The hotel serves a complimentary breakfast every morning. Breakfast is served in a tight space and can imagine on busy mornings how it might be challenging.  There are many places in the lobby to sit and eat breakfast or enjoy your coffee.  The lobby is aesthetically pleasing and there is a bar, but unfortunately it was closed both days of our stay. The workout room is small, but it has 2 treadmills, elliptical, and I believe stair master. There is an area for stretching and mat work. Free weights and a bench and a universal machine. On the 2nd floor, there is a large patio/lawn area with a variety of seating options.  There is a foosball table and huge connect four.  It's a great place to hang out with family and friends or get some sun. Overall, I was pleased with my stay at SpringHill Suites. I will choose to stay at this property again when in Huntington Beach. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I was in town for a softball tournament so I chose this hotel for its proximity to the softball fields at the Huntington Beach Complex.  I was pleasantly surprised to arrive and find shopping and restaurants across the street including a Whole Foods Market. 
+Room:
+I had requested a double room, but we were checking in early and there were no rooms available so I opted for a King. The room was separated into a living/sleeping area by a desk. There was a very large oversized couch. There was a refrigerator and microwave. The TV was huge and offered Netflix so you could log onto account and access movies. The room was very comfortable. 
+Hotel Grounds: 
+The hotel serves a complimentary breakfast every morning. Breakfast is served in a tight space and can imagine on busy mornings how it might be challenging.  There are many places in the lobby to sit and eat breakfast or enjoy your coffee.  The lobby is aesthetically pleasing and there is a bar, but unfortunately it was closed both days of our stay. 
+The workout room is small, but it has 2 treadmills, elliptical, and I believe stair master. There is an area for stretching and mat work. Free weights and a bench and a universal machine. 
+On the 2nd floor, there is a large patio/lawn area with a variety of seating options.  There is a foosball table and huge connect four.  It's a great...I was in town for a softball tournament so I chose this hotel for its proximity to the softball fields at the Huntington Beach Complex.  I was pleasantly surprised to arrive and find shopping and restaurants across the street including a Whole Foods Market. Room:I had requested a double room, but we were checking in early and there were no rooms available so I opted for a King. The room was separated into a living/sleeping area by a desk. There was a very large oversized couch. There was a refrigerator and microwave. The TV was huge and offered Netflix so you could log onto account and access movies. The room was very comfortable. Hotel Grounds: The hotel serves a complimentary breakfast every morning. Breakfast is served in a tight space and can imagine on busy mornings how it might be challenging.  There are many places in the lobby to sit and eat breakfast or enjoy your coffee.  The lobby is aesthetically pleasing and there is a bar, but unfortunately it was closed both days of our stay. The workout room is small, but it has 2 treadmills, elliptical, and I believe stair master. There is an area for stretching and mat work. Free weights and a bench and a universal machine. On the 2nd floor, there is a large patio/lawn area with a variety of seating options.  There is a foosball table and huge connect four.  It's a great place to hang out with family and friends or get some sun. Overall, I was pleased with my stay at SpringHill Suites. I will choose to stay at this property again when in Huntington Beach. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r555657514-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>555657514</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Oh so very quiet!</t>
+  </si>
+  <si>
+    <t>Stayed here with my elderly Mother and could not have been more pleased. The hotel was extremely busy but the employees all had positive attitudes and a can do spirit. I found our room to be very comfortable, well appointed and quite. Breakfast was a plus and the choices were ample.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here with my elderly Mother and could not have been more pleased. The hotel was extremely busy but the employees all had positive attitudes and a can do spirit. I found our room to be very comfortable, well appointed and quite. Breakfast was a plus and the choices were ample.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r552124175-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>552124175</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>After 6 weeks in USA we look for a Springhill Suites wherever we go. We have 2 teenagers so the extra trundle/sofa bed in a separated Lounge area is always welcome. Large room with 3 queen beds, large bathroom and large walk in cupboard. Lobby is lovely. New hotel opposite an ok mall with cinemas and a Whole Foods.MoreShow less</t>
+  </si>
+  <si>
+    <t>After 6 weeks in USA we look for a Springhill Suites wherever we go. We have 2 teenagers so the extra trundle/sofa bed in a separated Lounge area is always welcome. Large room with 3 queen beds, large bathroom and large walk in cupboard. Lobby is lovely. New hotel opposite an ok mall with cinemas and a Whole Foods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r549288555-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>549288555</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noisy!!!!! Walls paper thin - could not sleep </t>
+  </si>
+  <si>
+    <t>The floors must be paper thin because the people upstairs pounding the floor and have kid running since 8:30 last night. They told me quiet hours 9-8. I knew this would happen. Kid up running at 6!!!Front desk said walls just thin. She said she would call but they just got louder!Now I’m up and the kid is running around! The day is ruined!What a terrible night!!!!Also glitch in system, they knocked st 11:45 with housekeeping request that popped up then even though my checkin was much earlier!No pool! Who ever went to a marriot without a pool?We got here early and kids wanted hot tub. I guess I never read the amenities because marriot always had pools.The place is new and looks gorgeous!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>The floors must be paper thin because the people upstairs pounding the floor and have kid running since 8:30 last night. They told me quiet hours 9-8. I knew this would happen. Kid up running at 6!!!Front desk said walls just thin. She said she would call but they just got louder!Now I’m up and the kid is running around! The day is ruined!What a terrible night!!!!Also glitch in system, they knocked st 11:45 with housekeeping request that popped up then even though my checkin was much earlier!No pool! Who ever went to a marriot without a pool?We got here early and kids wanted hot tub. I guess I never read the amenities because marriot always had pools.The place is new and looks gorgeous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r548879532-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>548879532</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Our Go-To</t>
+  </si>
+  <si>
+    <t>This is always our “go-to” hotel when we are in the area. Always meets our expectations and beyond. We’ve been so frequently this past 6 months, I think most of the staff recognizes our faces by this point. Not sure if that’s a good thing or a bad thing. Haha. Regardless, this hotel is always super clean, comfortable, stylish and up to date decor. Definitely has become my husbands very favorite hotel chain because of this particular hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>This is always our “go-to” hotel when we are in the area. Always meets our expectations and beyond. We’ve been so frequently this past 6 months, I think most of the staff recognizes our faces by this point. Not sure if that’s a good thing or a bad thing. Haha. Regardless, this hotel is always super clean, comfortable, stylish and up to date decor. Definitely has become my husbands very favorite hotel chain because of this particular hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r540273231-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>540273231</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and location!</t>
+  </si>
+  <si>
+    <t>Recently stayed at his hotel and loved it!  Location was very convenient to activities and shops.  Hotel is very clean and stylish and has spacious guest rooms.  Ours had a lit walk-in closet which came in handy for changing without waking others sleeping in the room.  Highly recommend this hotel - friendly and accommodating staff, free wifi and breakfast!  Only areas of improvement I'd recommend is to have a waffle maker and eliminate the $10 daily parking fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Patrick G, Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Recently stayed at his hotel and loved it!  Location was very convenient to activities and shops.  Hotel is very clean and stylish and has spacious guest rooms.  Ours had a lit walk-in closet which came in handy for changing without waking others sleeping in the room.  Highly recommend this hotel - friendly and accommodating staff, free wifi and breakfast!  Only areas of improvement I'd recommend is to have a waffle maker and eliminate the $10 daily parking fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r539196334-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>539196334</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for my sisters wedding. It is a great hotel, brand new, wonderful staff. Breakfast was decent, having a full bar was a bonus. Located across the street from a shopping center with lots of great restaurants.Loved having the small frig, microwave and coffee maker. They took really good care of us and the whole bridal party. Thank you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for my sisters wedding. It is a great hotel, brand new, wonderful staff. Breakfast was decent, having a full bar was a bonus. Located across the street from a shopping center with lots of great restaurants.Loved having the small frig, microwave and coffee maker. They took really good care of us and the whole bridal party. Thank you!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r538148300-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>538148300</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Great New Property, Good Location</t>
+  </si>
+  <si>
+    <t>Recently stayed here for a work trip; was actually supposed to be a backup reservation as it was quite far from the convention center (in Long Beach) but everything was sold out and I was part of a staff block that got moved to this location. Lucky for us, it's a great new property.
+Room: spacious for newer hotels, has a large desk to work at, bed was comfortable, very clean, bathroom was nice. Couple of things I didn't like though was the lack of a rack for your suitcase inside the closet, and also did not have a safe inside the room.
+Hotel Property: Lobby was bright and clean. Staff was very friendly, and actually remembered &amp; greeted me by name after a couple days. Breakfast every morning was complimentary and had good healthy options (fresh fruit, eggs, greek yogurt, multi grain bread, among the usual). There's a little sundeck/patio on the 2nd floor which was nice. Didn't get to use it much but nice to have. Fitness center was also very clean, all equipment was brand new. A lot of equipment for a property of this size which was great.
+There's a huge shopping center across the street with a Whole Foods, Staples, and any type of restaurant / shop you could imagine so it was very convenient whenever we needed something or just needed a quick bite to eat.
+Short drive to Huntington beachfront. Would definitely stay...Recently stayed here for a work trip; was actually supposed to be a backup reservation as it was quite far from the convention center (in Long Beach) but everything was sold out and I was part of a staff block that got moved to this location. Lucky for us, it's a great new property.Room: spacious for newer hotels, has a large desk to work at, bed was comfortable, very clean, bathroom was nice. Couple of things I didn't like though was the lack of a rack for your suitcase inside the closet, and also did not have a safe inside the room.Hotel Property: Lobby was bright and clean. Staff was very friendly, and actually remembered &amp; greeted me by name after a couple days. Breakfast every morning was complimentary and had good healthy options (fresh fruit, eggs, greek yogurt, multi grain bread, among the usual). There's a little sundeck/patio on the 2nd floor which was nice. Didn't get to use it much but nice to have. Fitness center was also very clean, all equipment was brand new. A lot of equipment for a property of this size which was great.There's a huge shopping center across the street with a Whole Foods, Staples, and any type of restaurant / shop you could imagine so it was very convenient whenever we needed something or just needed a quick bite to eat.Short drive to Huntington beachfront. Would definitely stay here again if I came back to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Recently stayed here for a work trip; was actually supposed to be a backup reservation as it was quite far from the convention center (in Long Beach) but everything was sold out and I was part of a staff block that got moved to this location. Lucky for us, it's a great new property.
+Room: spacious for newer hotels, has a large desk to work at, bed was comfortable, very clean, bathroom was nice. Couple of things I didn't like though was the lack of a rack for your suitcase inside the closet, and also did not have a safe inside the room.
+Hotel Property: Lobby was bright and clean. Staff was very friendly, and actually remembered &amp; greeted me by name after a couple days. Breakfast every morning was complimentary and had good healthy options (fresh fruit, eggs, greek yogurt, multi grain bread, among the usual). There's a little sundeck/patio on the 2nd floor which was nice. Didn't get to use it much but nice to have. Fitness center was also very clean, all equipment was brand new. A lot of equipment for a property of this size which was great.
+There's a huge shopping center across the street with a Whole Foods, Staples, and any type of restaurant / shop you could imagine so it was very convenient whenever we needed something or just needed a quick bite to eat.
+Short drive to Huntington beachfront. Would definitely stay...Recently stayed here for a work trip; was actually supposed to be a backup reservation as it was quite far from the convention center (in Long Beach) but everything was sold out and I was part of a staff block that got moved to this location. Lucky for us, it's a great new property.Room: spacious for newer hotels, has a large desk to work at, bed was comfortable, very clean, bathroom was nice. Couple of things I didn't like though was the lack of a rack for your suitcase inside the closet, and also did not have a safe inside the room.Hotel Property: Lobby was bright and clean. Staff was very friendly, and actually remembered &amp; greeted me by name after a couple days. Breakfast every morning was complimentary and had good healthy options (fresh fruit, eggs, greek yogurt, multi grain bread, among the usual). There's a little sundeck/patio on the 2nd floor which was nice. Didn't get to use it much but nice to have. Fitness center was also very clean, all equipment was brand new. A lot of equipment for a property of this size which was great.There's a huge shopping center across the street with a Whole Foods, Staples, and any type of restaurant / shop you could imagine so it was very convenient whenever we needed something or just needed a quick bite to eat.Short drive to Huntington beachfront. Would definitely stay here again if I came back to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r534104222-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>534104222</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Amazingly good</t>
+  </si>
+  <si>
+    <t>New hotel, felt like we were the first ones ever in our room. Attractive, modern, clean throughout. Friendly helpful staff, good restaurants and shopping in a very short walking distance, I recommend BJ's; great specials and happy hour deals. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael F, Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>New hotel, felt like we were the first ones ever in our room. Attractive, modern, clean throughout. Friendly helpful staff, good restaurants and shopping in a very short walking distance, I recommend BJ's; great specials and happy hour deals. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r532078020-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>532078020</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>New and modern with a few design flaws</t>
+  </si>
+  <si>
+    <t>Stayed for a one-night family reunion.  The hotel is in a good location - just off the 405 and across the street from a variety of restaurants and shops.The continental breaksfast was decent enough and the staff was very helpful.The major problems are:- NO pool or jacuzzi- Frosted glass doors leading into the bathroom directly across from the bed. If you or your roommate needs to use the bathroom in the middle of the night, bring a flashlight or expect to wake up the rest of your traveling party.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patrick G, General Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for a one-night family reunion.  The hotel is in a good location - just off the 405 and across the street from a variety of restaurants and shops.The continental breaksfast was decent enough and the staff was very helpful.The major problems are:- NO pool or jacuzzi- Frosted glass doors leading into the bathroom directly across from the bed. If you or your roommate needs to use the bathroom in the middle of the night, bring a flashlight or expect to wake up the rest of your traveling party.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r531994042-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>531994042</t>
+  </si>
+  <si>
+    <t>Excellent BRAND NEW hotel near beach</t>
+  </si>
+  <si>
+    <t>This hotel is a gorgeous property in the Huntington beach area. It is 10 minute drive to the beach. Directly across the street from dining and restaurants. This hotel is new, modern, spacious, clean and has very nice amenities. The hot complimentary breakfast was way better than other hotels I have experienced....it varied each day but included scrambled eggs, boiled eggs, potatoes/home fries, oatmeal, cereal, fresh fruit, pastries, cheeses, coffee, tea, etc. The gym was sufficient. Equipment was clean, new and there was complimentary water and headphones to use. There is also an outdoor/deck/patio space that was quite enjoyable for evenings with a glass of wine or to sit and have coffee in the morning. There is a full bar in the lobby. The outdoor living space has lounge chairs and even outdoor games and a grassy area. Very nice. The rooms are large, modern and spacious. 40 min drive to LA, 20 min drive to Laguna and 10 min to Huntington beach. I would definitely recommend this hotel and will be staying again in the future. Zero complaints. The staff was very friendly, courteous and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Michael F, Manager at SpringHill Suites Huntington Beach Orange County, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a gorgeous property in the Huntington beach area. It is 10 minute drive to the beach. Directly across the street from dining and restaurants. This hotel is new, modern, spacious, clean and has very nice amenities. The hot complimentary breakfast was way better than other hotels I have experienced....it varied each day but included scrambled eggs, boiled eggs, potatoes/home fries, oatmeal, cereal, fresh fruit, pastries, cheeses, coffee, tea, etc. The gym was sufficient. Equipment was clean, new and there was complimentary water and headphones to use. There is also an outdoor/deck/patio space that was quite enjoyable for evenings with a glass of wine or to sit and have coffee in the morning. There is a full bar in the lobby. The outdoor living space has lounge chairs and even outdoor games and a grassy area. Very nice. The rooms are large, modern and spacious. 40 min drive to LA, 20 min drive to Laguna and 10 min to Huntington beach. I would definitely recommend this hotel and will be staying again in the future. Zero complaints. The staff was very friendly, courteous and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r520794685-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>520794685</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay!!</t>
+  </si>
+  <si>
+    <t>We just checked out of this hotel after at 10 day stay. This hotel is NEW...as in the towels-still-leave-little-fuzzies-all-over-you kind of new. Such a comfortable place to call our temporary home while we got our daughter settled into her first year at Biola University.  Pretty centrally located tojust about whatever you want to do while in the area. Beautifully decorated, super friendly and helpful staff. The only hiccups would be the fact that there is very little variation of the complimentary breakfast, although it is good and lots to choose from. There is also very little lighting available in the rooms. But these are minor things. Overall, this is an excellent hotel to stay in...don't hesitate, book now!  It's going to be high in demand very soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>We just checked out of this hotel after at 10 day stay. This hotel is NEW...as in the towels-still-leave-little-fuzzies-all-over-you kind of new. Such a comfortable place to call our temporary home while we got our daughter settled into her first year at Biola University.  Pretty centrally located tojust about whatever you want to do while in the area. Beautifully decorated, super friendly and helpful staff. The only hiccups would be the fact that there is very little variation of the complimentary breakfast, although it is good and lots to choose from. There is also very little lighting available in the rooms. But these are minor things. Overall, this is an excellent hotel to stay in...don't hesitate, book now!  It's going to be high in demand very soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r519151620-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>519151620</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Modern comfort</t>
+  </si>
+  <si>
+    <t>I visited Huntington for leisure and I must say I am glad I stayed here. I am a frequent stayer of only Marriots but this time a chose Springhill suites amd I was impressed. The staff was friendly and professional. The building appeared new and I loved the modern design from West Elm. The room was chic and comfortable. Very affordable price for the lovely accomodations. I will definitely stay here again when in Huntington.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I visited Huntington for leisure and I must say I am glad I stayed here. I am a frequent stayer of only Marriots but this time a chose Springhill suites amd I was impressed. The staff was friendly and professional. The building appeared new and I loved the modern design from West Elm. The room was chic and comfortable. Very affordable price for the lovely accomodations. I will definitely stay here again when in Huntington.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r517844643-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>517844643</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't want to leave! </t>
+  </si>
+  <si>
+    <t>My mom booked this hotel for my fiancé and I. She chose it because it just opened and I must say, she made an excellent choice! I found out upon check-in that it literally opened a week ago. The staff was super friendly throughout our entire stay. They were able to accommodate our requests. The decor was very modern and fitting to the area to the point of wanted to purchase some of their artwork. The room was extremely spacious with a parlor area that included a microwave and refrigerator. The bed was very comfortable and the bathroom was huge. Breakfast was good with a decent selection. The location was close to the 405 but not right off the exit so you didn't get the noise. Lots of nearby shopping and restaurants. Overall in a great area of town. We really didn't want to leave. We will definitely be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>My mom booked this hotel for my fiancé and I. She chose it because it just opened and I must say, she made an excellent choice! I found out upon check-in that it literally opened a week ago. The staff was super friendly throughout our entire stay. They were able to accommodate our requests. The decor was very modern and fitting to the area to the point of wanted to purchase some of their artwork. The room was extremely spacious with a parlor area that included a microwave and refrigerator. The bed was very comfortable and the bathroom was huge. Breakfast was good with a decent selection. The location was close to the 405 but not right off the exit so you didn't get the noise. Lots of nearby shopping and restaurants. Overall in a great area of town. We really didn't want to leave. We will definitely be back! More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1208,1478 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>191</v>
+      </c>
+      <c r="X21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65497</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_707.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_707.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Juliane M</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The rooms are nice and new and beds are comfortable. With that said, there is no pool, the gym is tiny and no hair dryers in the rooms. house keeping didn't show up until after 4 PM to clean the room. We had to leave our room after a long day of class, just so house keeping could clean. There is a very nice rooftop deck on the 2nd floor with lawn games, heaters and lounge chairs. The front desk staff closed the deck at 10 every night but there is no sign with any sort of hours on it for the deck area so we got kicked out as soon as we got settled in. There is nothing else to do so it doesn't make much sense to close the deck.If you have no kids and are staying one night to sleep or if you don't want to do anything but stay in your room while you are at this hotel, it would be fine. If you are looking for any kind of activity at the hotel, find another place.More</t>
   </si>
   <si>
+    <t>Dawn382</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r589854266-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>This hotel was great!! I hosted my Wedding guests at this hotel and everyone was pleased. The rooms were clean, spacious, and modern. I the only thing was I wish they had a pool other than that I would definitely stay here again. The staff were friendly and the breakfast bar area wasn't half bad either.</t>
   </si>
   <si>
+    <t>alexgohkw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r586853169-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>We arrived around 11am and the room was not ready so we continued our agenda to Disneyland and returned 11pm.When we were back, to our surprise, the room type (2 x Queen) we reserved earlier was not arranged and since the whole property was sold out, we were left with no choice but to put up in a room far away from lift and facing the highway. The night was not really pleasant  due to unceasing road noise and some drunk pple yelling in the car park post wedding event.The next morning, we went to David and he was able to arrange the desired room for us and the whole experience took a turn and ended quite well.The breakfast was not bad with good variety to choose from. If there is anything to pick on, it would be the $10 parking charge. It seems that charging parking is a norm in this area.More</t>
   </si>
   <si>
+    <t>Kevin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r574087285-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Great choice for a stay in HB.close to good amenities like restaurants,shops,cinema etc.that you can walk too.The rooms are new,well laid out and a good size with comfortable beds,might be wise to ask for a room at the back as there could be noise from the highway at the front.The staff are friendly,professional and give the place a welcoming feel. David on reception was great,very helpful and a real ambassador for the hotel.Well equipped gym,laundry facilities and the free continental breakfast was good.It is a 30 minute drive to the beach,we found the location be be a very good base for the area and would have no hesitation in recommending this good value,comfortable and friendly hotel.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r573302398-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>New! New furnishings, fixtures, carpets. The place was immaculate and everything was new. The rooms as greater and accommodated our entire family of six. The breakfast was terrific and included everything you could want. Great stay. Perfect for families.</t>
   </si>
   <si>
+    <t>Frank I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r572775905-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>This is a great location for visiting the Huntington Beach area and even Disneyland. It is brand new and the staff was very professional and helpful. Breakfast was the usual fare, but was well stocked throughout the morning. It's also right off the 405 freeway and easy access. It has Marriott quality without having to drive to Costa Mesa.</t>
   </si>
   <si>
+    <t>Javisdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r566583085-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>gauvain2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r564031158-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>angel90008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r563391022-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>My good experience with this hotel started before I even arrived. I got notification at least a few hours before I was suppose to check in that, that my room was ready. I enjoyed my stay here. It is a beautiful modern hotel in a good location. Everything is still new and fresh. The price was very reasonable. Parking is only $10. The rooms and bathroom were a good size. The bed was very comfortable. There are a microwave and mini fridge in the room. The tv was equipped with internet TV. It made it super easy to sign in to your netflix, hulu, youtube, etc. There were plenty of outlet to charge devices, even if you only had the USB. There is this nice terrace on the second floor, where you can relax and enjoy the view or play some life-size games (connect 4, Jenga, foosball). Wi-fi is free. There is a complimentary breakfast. The breakfast (scrambled eggs, potatoes, mini waffles, pastries, etc) was just ok. The hotel is within walking distance to Bella Terra, where there are lots of great shops (Kohls, Costco, Burlington factory, etc), an awesome movie theatre, and lots of eating places. The staff was super awesome and friendly. I have a few minor complaints (almost not worth mentioning). The room was almost spotless except for one little popcorn behind the ice bucket. The chair at the desk in the work area was heavy and...My good experience with this hotel started before I even arrived. I got notification at least a few hours before I was suppose to check in that, that my room was ready. I enjoyed my stay here. It is a beautiful modern hotel in a good location. Everything is still new and fresh. The price was very reasonable. Parking is only $10. The rooms and bathroom were a good size. The bed was very comfortable. There are a microwave and mini fridge in the room. The tv was equipped with internet TV. It made it super easy to sign in to your netflix, hulu, youtube, etc. There were plenty of outlet to charge devices, even if you only had the USB. There is this nice terrace on the second floor, where you can relax and enjoy the view or play some life-size games (connect 4, Jenga, foosball). Wi-fi is free. There is a complimentary breakfast. The breakfast (scrambled eggs, potatoes, mini waffles, pastries, etc) was just ok. The hotel is within walking distance to Bella Terra, where there are lots of great shops (Kohls, Costco, Burlington factory, etc), an awesome movie theatre, and lots of eating places. The staff was super awesome and friendly. I have a few minor complaints (almost not worth mentioning). The room was almost spotless except for one little popcorn behind the ice bucket. The chair at the desk in the work area was heavy and hard to move. The glass in the little work area/desk sometimes shook and made noise when you walked by it. The Tv was position a little akwardly to be able to view from the living room area and bedroom area. Overall, my stay was great. If I was in the area, I would stay here again.More</t>
   </si>
   <si>
+    <t>Utah-Indy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r558877417-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -361,6 +391,9 @@
   </si>
   <si>
     <t>Love the remodeled modern look of the Springhill Suites. This is the second one we’ve stayed in this year and it didn’t disappoint. Bed is comfy. Large TV. Oversized couch. Free breakfast. Parking is $10/day. Convenient location across the street from Shopping, Whole Foods, Costco, restaurants. If you in town for a short stay it would be better to Uber around. Car rental rates are pricey with all the extra CA fees and taxes. Located only 10 minutes from the airport.More</t>
+  </si>
+  <si>
+    <t>Melstone05</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r558339952-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
@@ -396,6 +429,9 @@
 On the 2nd floor, there is a large patio/lawn area with a variety of seating options.  There is a foosball table and huge connect four.  It's a great...I was in town for a softball tournament so I chose this hotel for its proximity to the softball fields at the Huntington Beach Complex.  I was pleasantly surprised to arrive and find shopping and restaurants across the street including a Whole Foods Market. Room:I had requested a double room, but we were checking in early and there were no rooms available so I opted for a King. The room was separated into a living/sleeping area by a desk. There was a very large oversized couch. There was a refrigerator and microwave. The TV was huge and offered Netflix so you could log onto account and access movies. The room was very comfortable. Hotel Grounds: The hotel serves a complimentary breakfast every morning. Breakfast is served in a tight space and can imagine on busy mornings how it might be challenging.  There are many places in the lobby to sit and eat breakfast or enjoy your coffee.  The lobby is aesthetically pleasing and there is a bar, but unfortunately it was closed both days of our stay. The workout room is small, but it has 2 treadmills, elliptical, and I believe stair master. There is an area for stretching and mat work. Free weights and a bench and a universal machine. On the 2nd floor, there is a large patio/lawn area with a variety of seating options.  There is a foosball table and huge connect four.  It's a great place to hang out with family and friends or get some sun. Overall, I was pleased with my stay at SpringHill Suites. I will choose to stay at this property again when in Huntington Beach. More</t>
   </si>
   <si>
+    <t>fairviewmanor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r555657514-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>Stayed here with my elderly Mother and could not have been more pleased. The hotel was extremely busy but the employees all had positive attitudes and a can do spirit. I found our room to be very comfortable, well appointed and quite. Breakfast was a plus and the choices were ample.More</t>
   </si>
   <si>
+    <t>Charlotte T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r552124175-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>After 6 weeks in USA we look for a Springhill Suites wherever we go. We have 2 teenagers so the extra trundle/sofa bed in a separated Lounge area is always welcome. Large room with 3 queen beds, large bathroom and large walk in cupboard. Lobby is lovely. New hotel opposite an ok mall with cinemas and a Whole Foods.More</t>
   </si>
   <si>
+    <t>Elana K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r549288555-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>The floors must be paper thin because the people upstairs pounding the floor and have kid running since 8:30 last night. They told me quiet hours 9-8. I knew this would happen. Kid up running at 6!!!Front desk said walls just thin. She said she would call but they just got louder!Now I’m up and the kid is running around! The day is ruined!What a terrible night!!!!Also glitch in system, they knocked st 11:45 with housekeeping request that popped up then even though my checkin was much earlier!No pool! Who ever went to a marriot without a pool?We got here early and kids wanted hot tub. I guess I never read the amenities because marriot always had pools.The place is new and looks gorgeous!More</t>
   </si>
   <si>
+    <t>Sara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r548879532-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t>This is always our “go-to” hotel when we are in the area. Always meets our expectations and beyond. We’ve been so frequently this past 6 months, I think most of the staff recognizes our faces by this point. Not sure if that’s a good thing or a bad thing. Haha. Regardless, this hotel is always super clean, comfortable, stylish and up to date decor. Definitely has become my husbands very favorite hotel chain because of this particular hotel. More</t>
   </si>
   <si>
+    <t>elizabethbC7797WX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r540273231-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -516,6 +564,9 @@
     <t>Recently stayed at his hotel and loved it!  Location was very convenient to activities and shops.  Hotel is very clean and stylish and has spacious guest rooms.  Ours had a lit walk-in closet which came in handy for changing without waking others sleeping in the room.  Highly recommend this hotel - friendly and accommodating staff, free wifi and breakfast!  Only areas of improvement I'd recommend is to have a waffle maker and eliminate the $10 daily parking fee.More</t>
   </si>
   <si>
+    <t>Hhogelund</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r539196334-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -538,6 +589,9 @@
   </si>
   <si>
     <t>Stayed here for 2 nights for my sisters wedding. It is a great hotel, brand new, wonderful staff. Breakfast was decent, having a full bar was a bonus. Located across the street from a shopping center with lots of great restaurants.Loved having the small frig, microwave and coffee maker. They took really good care of us and the whole bridal party. Thank you!!More</t>
+  </si>
+  <si>
+    <t>Connie L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r538148300-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
@@ -572,6 +626,9 @@
 Short drive to Huntington beachfront. Would definitely stay...Recently stayed here for a work trip; was actually supposed to be a backup reservation as it was quite far from the convention center (in Long Beach) but everything was sold out and I was part of a staff block that got moved to this location. Lucky for us, it's a great new property.Room: spacious for newer hotels, has a large desk to work at, bed was comfortable, very clean, bathroom was nice. Couple of things I didn't like though was the lack of a rack for your suitcase inside the closet, and also did not have a safe inside the room.Hotel Property: Lobby was bright and clean. Staff was very friendly, and actually remembered &amp; greeted me by name after a couple days. Breakfast every morning was complimentary and had good healthy options (fresh fruit, eggs, greek yogurt, multi grain bread, among the usual). There's a little sundeck/patio on the 2nd floor which was nice. Didn't get to use it much but nice to have. Fitness center was also very clean, all equipment was brand new. A lot of equipment for a property of this size which was great.There's a huge shopping center across the street with a Whole Foods, Staples, and any type of restaurant / shop you could imagine so it was very convenient whenever we needed something or just needed a quick bite to eat.Short drive to Huntington beachfront. Would definitely stay here again if I came back to the area.More</t>
   </si>
   <si>
+    <t>Rock D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r534104222-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -596,6 +653,9 @@
     <t>New hotel, felt like we were the first ones ever in our room. Attractive, modern, clean throughout. Friendly helpful staff, good restaurants and shopping in a very short walking distance, I recommend BJ's; great specials and happy hour deals. More</t>
   </si>
   <si>
+    <t>Alfonzia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r532078020-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -620,6 +680,9 @@
     <t>Stayed for a one-night family reunion.  The hotel is in a good location - just off the 405 and across the street from a variety of restaurants and shops.The continental breaksfast was decent enough and the staff was very helpful.The major problems are:- NO pool or jacuzzi- Frosted glass doors leading into the bathroom directly across from the bed. If you or your roommate needs to use the bathroom in the middle of the night, bring a flashlight or expect to wake up the rest of your traveling party.More</t>
   </si>
   <si>
+    <t>sweetbabiet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r531994042-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -671,6 +734,9 @@
     <t>We just checked out of this hotel after at 10 day stay. This hotel is NEW...as in the towels-still-leave-little-fuzzies-all-over-you kind of new. Such a comfortable place to call our temporary home while we got our daughter settled into her first year at Biola University.  Pretty centrally located tojust about whatever you want to do while in the area. Beautifully decorated, super friendly and helpful staff. The only hiccups would be the fact that there is very little variation of the complimentary breakfast, although it is good and lots to choose from. There is also very little lighting available in the rooms. But these are minor things. Overall, this is an excellent hotel to stay in...don't hesitate, book now!  It's going to be high in demand very soon. More</t>
   </si>
   <si>
+    <t>BarbS1213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r519151620-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
   </si>
   <si>
@@ -690,6 +756,9 @@
   </si>
   <si>
     <t>I visited Huntington for leisure and I must say I am glad I stayed here. I am a frequent stayer of only Marriots but this time a chose Springhill suites amd I was impressed. The staff was friendly and professional. The building appeared new and I loved the modern design from West Elm. The room was chic and comfortable. Very affordable price for the lovely accomodations. I will definitely stay here again when in Huntington.More</t>
+  </si>
+  <si>
+    <t>tlaugustine1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32513-d12214492-r517844643-SpringHill_Suites_Huntington_Beach_Orange_County-Huntington_Beach_California.html</t>
@@ -1212,43 +1281,47 @@
       <c r="A2" t="n">
         <v>65497</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1264,47 +1337,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65497</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -1323,50 +1400,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65497</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1378,56 +1459,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65497</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1441,50 +1526,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65497</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1504,41 +1593,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65497</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1557,50 +1650,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65497</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1614,50 +1711,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65497</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1677,50 +1778,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65497</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1738,50 +1843,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65497</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>99</v>
-      </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1793,56 +1902,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65497</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1854,56 +1967,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65497</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1921,56 +2038,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65497</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>120</v>
-      </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1982,56 +2103,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65497</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2043,56 +2168,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65497</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2104,56 +2233,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65497</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2171,56 +2304,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65497</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2232,56 +2369,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65497</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2297,56 +2438,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
         <v>176</v>
       </c>
-      <c r="X19" t="s">
-        <v>160</v>
-      </c>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65497</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2358,56 +2503,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65497</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2425,56 +2574,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65497</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2492,56 +2645,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65497</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2553,56 +2710,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65497</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2614,56 +2775,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65497</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2677,7 +2842,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
